--- a/biology/Médecine/Veine_oblique_de_l'atrium_gauche/Veine_oblique_de_l'atrium_gauche.xlsx
+++ b/biology/Médecine/Veine_oblique_de_l'atrium_gauche/Veine_oblique_de_l'atrium_gauche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_oblique_de_l%27atrium_gauche</t>
+          <t>Veine_oblique_de_l'atrium_gauche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine oblique de l'atrium gauche, ou veine de Marshall est une petite veine située à l'arrière de l'atrium gauche et  s'abouchant dans le sinus coronaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_oblique_de_l%27atrium_gauche</t>
+          <t>Veine_oblique_de_l'atrium_gauche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine contient de nombreuses fibres du système nerveux sympathique[1] et parasympathique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine contient de nombreuses fibres du système nerveux sympathique et parasympathique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_oblique_de_l%27atrium_gauche</t>
+          <t>Veine_oblique_de_l'atrium_gauche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des extrasystoles atriales peuvent naître de cette veine, pouvant être responsable de l'apparition d'une fibrillation atriale[3].
-L'occlusion de cette veine, par injection d'éthanol lors d'un cathétérisme de celle-ci en passant par le sinus coronaire, permet de traiter certains types de flutter atrial gauche, dont le circuit est proche de l'anneau mitral[4]. Elle permet aussi de diminuer le tonus parasympathique[5] et d'augmenter l'efficacité d'une isolation des veines pulmonaires lors d'un ablation de fibrillation atriale[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des extrasystoles atriales peuvent naître de cette veine, pouvant être responsable de l'apparition d'une fibrillation atriale.
+L'occlusion de cette veine, par injection d'éthanol lors d'un cathétérisme de celle-ci en passant par le sinus coronaire, permet de traiter certains types de flutter atrial gauche, dont le circuit est proche de l'anneau mitral. Elle permet aussi de diminuer le tonus parasympathique et d'augmenter l'efficacité d'une isolation des veines pulmonaires lors d'un ablation de fibrillation atriale.
 </t>
         </is>
       </c>
